--- a/template/BOM/BOMTemplateV2.xlsx
+++ b/template/BOM/BOMTemplateV2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\AD24\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CC62AC-F9F6-4229-93DA-AD56F4C54F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2C6B60-DFA9-47D1-9769-8C1177345D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{EC99F600-2B82-4770-AB72-A11D4B162B1B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{EC99F600-2B82-4770-AB72-A11D4B162B1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Column=LCSC Part #</t>
   </si>
@@ -86,9 +86,6 @@
     <t>BILL OF MATERIAL</t>
   </si>
   <si>
-    <t>Field=Title</t>
-  </si>
-  <si>
     <t>Project Title:</t>
   </si>
   <si>
@@ -114,6 +111,15 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Field=Project</t>
+  </si>
+  <si>
+    <t>Revision:</t>
+  </si>
+  <si>
+    <t>Field=Revision</t>
   </si>
 </sst>
 </file>
@@ -157,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -290,25 +296,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -321,6 +357,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,47 +698,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A1CD50-E769-4B36-9086-FA1A2B17A8EF}">
   <dimension ref="B1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
-    <col min="2" max="2" width="4" style="11" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="19" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="24.5703125" style="11" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" style="11" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" style="11" customWidth="1"/>
-    <col min="16" max="16" width="24.5703125" style="11" customWidth="1"/>
-    <col min="17" max="17" width="22" style="11" customWidth="1"/>
-    <col min="18" max="18" width="3.140625" style="11" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="4" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="24.5703125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="24.5703125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="22" style="5" customWidth="1"/>
+    <col min="18" max="18" width="3.140625" style="5" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>16</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -708,267 +749,207 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="19" t="s">
-        <v>25</v>
+      <c r="R2" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
       <c r="G3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
       <c r="Q3" s="7"/>
-      <c r="R3" s="19" t="s">
-        <v>25</v>
+      <c r="R3" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
       <c r="G4" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+        <v>27</v>
+      </c>
       <c r="Q4" s="7"/>
-      <c r="R4" s="19" t="s">
-        <v>25</v>
+      <c r="R4" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+      <c r="G5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q5" s="7"/>
-      <c r="R5" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R5" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="19" t="s">
-        <v>25</v>
+      <c r="R7" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="O8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="P8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="16" t="s">
+      <c r="Q8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="R8" s="19" t="s">
-        <v>25</v>
+      <c r="R8" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <f>ROW(B9) - ROW($B$8)</f>
         <v>1</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="19" t="s">
-        <v>25</v>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <f t="shared" ref="B10:B11" si="0">ROW(B10) - ROW($B$8)</f>
         <v>2</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="19" t="s">
-        <v>25</v>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="19" t="s">
-        <v>25</v>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="19" t="s">
-        <v>25</v>
+      <c r="R12" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -988,23 +969,23 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="10"/>
-      <c r="R13" s="19" t="s">
-        <v>25</v>
+      <c r="R13" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R14" s="19" t="s">
-        <v>25</v>
+      <c r="R14" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1018,71 +999,32 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="19" t="s">
-        <v>25</v>
+      <c r="R15" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="19" t="s">
-        <v>25</v>
+      <c r="R16" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="19" t="s">
-        <v>25</v>
+      <c r="R17" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="19" t="s">
-        <v>25</v>
+      <c r="R18" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1102,8 +1044,8 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="10"/>
-      <c r="R19" s="19" t="s">
-        <v>25</v>
+      <c r="R19" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
